--- a/data_test.xlsx
+++ b/data_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuyulu\Documents\thesis\HRC_taskAlloc_w.TB_w.AR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B3B499-B226-4D0F-8F08-1E9E7FED1E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7848F967-C320-4803-82BB-7C9B9512605C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23715" yWindow="11835" windowWidth="16200" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>J1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,13 +58,35 @@
   <si>
     <t>Order</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> J4  </t>
+  </si>
+  <si>
+    <t> J5  </t>
+  </si>
+  <si>
+    <t> J6  </t>
+  </si>
+  <si>
+    <t>J7  </t>
+  </si>
+  <si>
+    <t>J8  </t>
+  </si>
+  <si>
+    <t>J9  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +100,12 @@
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -100,8 +128,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -382,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D4"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -406,49 +440,151 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>36</v>
-      </c>
-      <c r="C2">
-        <v>54</v>
-      </c>
-      <c r="D2">
-        <v>36</v>
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>29</v>
+      </c>
+      <c r="C2" s="1">
+        <v>78</v>
+      </c>
+      <c r="D2" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>72</v>
-      </c>
-      <c r="C3">
-        <v>70</v>
-      </c>
-      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>43</v>
+      </c>
+      <c r="C3" s="1">
+        <v>90</v>
+      </c>
+      <c r="D3" s="1">
         <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>91</v>
+      </c>
+      <c r="C4" s="1">
+        <v>85</v>
+      </c>
+      <c r="D4" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>80</v>
-      </c>
-      <c r="C4">
+      <c r="B5" s="1">
+        <v>81</v>
+      </c>
+      <c r="C5" s="1">
+        <v>95</v>
+      </c>
+      <c r="D5" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1">
+        <v>84</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1">
+        <v>46</v>
+      </c>
+      <c r="C8" s="1">
+        <v>37</v>
+      </c>
+      <c r="D8" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1">
         <v>86</v>
       </c>
-      <c r="D4">
-        <v>78</v>
-      </c>
+      <c r="D9" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1">
+        <v>76</v>
+      </c>
+      <c r="C10" s="1">
+        <v>69</v>
+      </c>
+      <c r="D10" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1">
+        <v>85</v>
+      </c>
+      <c r="C11" s="1">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data_test.xlsx
+++ b/data_test.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuyulu\Documents\thesis\HRC_taskAlloc_w.TB_w.AR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7848F967-C320-4803-82BB-7C9B9512605C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4564FE5D-26D3-4B17-81BC-BD6DB3635E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23715" yWindow="11835" windowWidth="16200" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16080" yWindow="8130" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Processing Time" sheetId="1" r:id="rId1"/>
     <sheet name="Agents Sequence" sheetId="2" r:id="rId2"/>
+    <sheet name="Therblig Process Time" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>J1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +81,34 @@
   </si>
   <si>
     <t>J9  </t>
+  </si>
+  <si>
+    <t>TE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -418,7 +447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
@@ -658,4 +687,130 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48212607-C983-4A68-AFC1-9EB2A772EC95}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>34</v>
+      </c>
+      <c r="C2">
+        <v>33</v>
+      </c>
+      <c r="D2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <v>39</v>
+      </c>
+      <c r="D3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>56</v>
+      </c>
+      <c r="C6">
+        <v>55</v>
+      </c>
+      <c r="D6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>106</v>
+      </c>
+      <c r="C7">
+        <v>105</v>
+      </c>
+      <c r="D7">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>106</v>
+      </c>
+      <c r="C8">
+        <v>105</v>
+      </c>
+      <c r="D8">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data_test.xlsx
+++ b/data_test.xlsx
@@ -1,33 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuyulu\Documents\thesis\HRC_taskAlloc_w.TB_w.AR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\Document\NTHU\master\HRC_taskalloc_w.TB_w.AR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4564FE5D-26D3-4B17-81BC-BD6DB3635E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A03E708-CE25-4896-8AD5-006C00C9B757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16080" yWindow="8130" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32625" yWindow="3750" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Processing Time" sheetId="1" r:id="rId1"/>
     <sheet name="Agents Sequence" sheetId="2" r:id="rId2"/>
-    <sheet name="Therblig Process Time" sheetId="3" r:id="rId3"/>
+    <sheet name="Chart1" sheetId="4" r:id="rId3"/>
+    <sheet name="Therblig Process Time" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>J1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,6 +120,10 @@
   </si>
   <si>
     <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Therblig</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -157,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -165,6 +181,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -180,6 +197,1109 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Therblig Process Time'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Therblig Process Time'!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>TE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RL</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>P</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Therblig Process Time'!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8B45-4D4B-9416-DBC59B03AAFE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Therblig Process Time'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Therblig Process Time'!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>TE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RL</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>P</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Therblig Process Time'!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8B45-4D4B-9416-DBC59B03AAFE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Therblig Process Time'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BOT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Therblig Process Time'!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>TE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RL</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>P</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Therblig Process Time'!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8B45-4D4B-9416-DBC59B03AAFE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="456839295"/>
+        <c:axId val="456837375"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="456839295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="456837375"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="456837375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="456839295"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{ED2E472C-15FF-4308-94DB-AEED62061892}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="110" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9291205" cy="6070023"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B89AF03-660D-D04E-4ED8-7D6E98F2E2BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -694,12 +1814,18 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
@@ -714,98 +1840,98 @@
       <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B2">
-        <v>34</v>
-      </c>
-      <c r="C2">
-        <v>33</v>
-      </c>
-      <c r="D2">
-        <v>44</v>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="B3">
-        <v>40</v>
-      </c>
-      <c r="C3">
-        <v>39</v>
-      </c>
-      <c r="D3">
-        <v>44</v>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="B4">
-        <v>20</v>
-      </c>
-      <c r="C4">
-        <v>19</v>
-      </c>
-      <c r="D4">
-        <v>22</v>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="B5">
-        <v>20</v>
-      </c>
-      <c r="C5">
-        <v>19</v>
-      </c>
-      <c r="D5">
-        <v>22</v>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B6">
-        <v>56</v>
-      </c>
-      <c r="C6">
-        <v>55</v>
-      </c>
-      <c r="D6">
-        <v>50</v>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B7">
-        <v>106</v>
-      </c>
-      <c r="C7">
-        <v>105</v>
-      </c>
-      <c r="D7">
-        <v>110</v>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B8">
-        <v>106</v>
-      </c>
-      <c r="C8">
-        <v>105</v>
-      </c>
-      <c r="D8">
-        <v>110</v>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data_test.xlsx
+++ b/data_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\Document\NTHU\master\HRC_taskalloc_w.TB_w.AR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuyulu\Documents\thesis\HRC_taskAlloc_w.TB_w.AR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A03E708-CE25-4896-8AD5-006C00C9B757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22AB9B1A-A336-42B8-AE58-BB020A6CE8EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32625" yWindow="3750" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Processing Time" sheetId="1" r:id="rId1"/>
@@ -30,8 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
   <si>
     <t>J1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,14 +93,6 @@
     <t>J9  </t>
   </si>
   <si>
-    <t>TE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>G</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -125,6 +115,145 @@
   <si>
     <t>Therblig</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R20A</t>
+  </si>
+  <si>
+    <t>R2A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R4A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R6A</t>
+  </si>
+  <si>
+    <t>R8A</t>
+  </si>
+  <si>
+    <t>R10A</t>
+  </si>
+  <si>
+    <t>R12A</t>
+  </si>
+  <si>
+    <t>R14A</t>
+  </si>
+  <si>
+    <t>R16A</t>
+  </si>
+  <si>
+    <t>R18A</t>
+  </si>
+  <si>
+    <t>R22A</t>
+  </si>
+  <si>
+    <t>R24A</t>
+  </si>
+  <si>
+    <t>R26A</t>
+  </si>
+  <si>
+    <t>R28A</t>
+  </si>
+  <si>
+    <t>R30A</t>
+  </si>
+  <si>
+    <t>R2B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R4B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R6B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R8B</t>
+  </si>
+  <si>
+    <t>R10B</t>
+  </si>
+  <si>
+    <t>R12B</t>
+  </si>
+  <si>
+    <t>R14B</t>
+  </si>
+  <si>
+    <t>R16B</t>
+  </si>
+  <si>
+    <t>R18B</t>
+  </si>
+  <si>
+    <t>R20B</t>
+  </si>
+  <si>
+    <t>R22B</t>
+  </si>
+  <si>
+    <t>R24B</t>
+  </si>
+  <si>
+    <t>R26B</t>
+  </si>
+  <si>
+    <t>R28B</t>
+  </si>
+  <si>
+    <t>R30B</t>
+  </si>
+  <si>
+    <t>M2B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M4B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M6B</t>
+  </si>
+  <si>
+    <t>M8B</t>
+  </si>
+  <si>
+    <t>M10B</t>
+  </si>
+  <si>
+    <t>M12B</t>
+  </si>
+  <si>
+    <t>M14B</t>
+  </si>
+  <si>
+    <t>M16B</t>
+  </si>
+  <si>
+    <t>M18B</t>
+  </si>
+  <si>
+    <t>M20B</t>
+  </si>
+  <si>
+    <t>M22B</t>
+  </si>
+  <si>
+    <t>M24B</t>
+  </si>
+  <si>
+    <t>M26B</t>
+  </si>
+  <si>
+    <t>M28B</t>
   </si>
 </sst>
 </file>
@@ -276,28 +405,154 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Therblig Process Time'!$A$2:$A$8</c:f>
+              <c:f>'Therblig Process Time'!$A$2:$A$61</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>TE</c:v>
+                  <c:v>R2A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>TL</c:v>
+                  <c:v>R4A</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>R6A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>R8A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>R10A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>R12A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>R14A</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>R16A</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>R18A</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>R20A</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>R22A</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>R24A</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>R26A</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>R28A</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>R30A</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>R2B</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>R4B</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>R6B</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>R8B</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>R10B</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>R12B</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>R14B</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>R16B</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>R18B</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>R20B</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>R22B</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>R24B</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>R26B</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>R28B</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>R30B</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>M2B</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>M4B</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>M6B</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>M8B</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>M10B</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>M12B</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>M14B</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>M16B</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>M18B</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>M20B</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>M22B</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>M24B</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>M26B</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>M28B</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>G</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="45">
                   <c:v>RL</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="46">
                   <c:v>P</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="47">
                   <c:v>A</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="48">
                   <c:v>DA</c:v>
                 </c:pt>
               </c:strCache>
@@ -305,30 +560,156 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Therblig Process Time'!$B$2:$B$8</c:f>
+              <c:f>'Therblig Process Time'!$B$2:$B$61</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="0">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -365,28 +746,154 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Therblig Process Time'!$A$2:$A$8</c:f>
+              <c:f>'Therblig Process Time'!$A$2:$A$61</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>TE</c:v>
+                  <c:v>R2A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>TL</c:v>
+                  <c:v>R4A</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>R6A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>R8A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>R10A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>R12A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>R14A</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>R16A</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>R18A</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>R20A</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>R22A</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>R24A</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>R26A</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>R28A</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>R30A</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>R2B</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>R4B</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>R6B</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>R8B</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>R10B</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>R12B</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>R14B</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>R16B</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>R18B</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>R20B</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>R22B</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>R24B</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>R26B</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>R28B</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>R30B</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>M2B</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>M4B</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>M6B</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>M8B</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>M10B</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>M12B</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>M14B</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>M16B</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>M18B</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>M20B</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>M22B</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>M24B</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>M26B</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>M28B</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>G</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="45">
                   <c:v>RL</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="46">
                   <c:v>P</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="47">
                   <c:v>A</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="48">
                   <c:v>DA</c:v>
                 </c:pt>
               </c:strCache>
@@ -394,30 +901,156 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Therblig Process Time'!$C$2:$C$8</c:f>
+              <c:f>'Therblig Process Time'!$C$2:$C$61</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="0">
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -454,28 +1087,154 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Therblig Process Time'!$A$2:$A$8</c:f>
+              <c:f>'Therblig Process Time'!$A$2:$A$61</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>TE</c:v>
+                  <c:v>R2A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>TL</c:v>
+                  <c:v>R4A</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>R6A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>R8A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>R10A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>R12A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>R14A</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>R16A</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>R18A</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>R20A</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>R22A</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>R24A</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>R26A</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>R28A</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>R30A</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>R2B</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>R4B</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>R6B</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>R8B</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>R10B</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>R12B</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>R14B</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>R16B</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>R18B</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>R20B</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>R22B</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>R24B</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>R26B</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>R28B</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>R30B</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>M2B</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>M4B</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>M6B</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>M8B</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>M10B</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>M12B</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>M14B</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>M16B</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>M18B</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>M20B</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>M22B</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>M24B</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>M26B</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>M28B</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>G</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="45">
                   <c:v>RL</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="46">
                   <c:v>P</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="47">
                   <c:v>A</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="48">
                   <c:v>DA</c:v>
                 </c:pt>
               </c:strCache>
@@ -483,30 +1242,156 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Therblig Process Time'!$D$2:$D$8</c:f>
+              <c:f>'Therblig Process Time'!$D$2:$D$61</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1262,7 +2147,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{ED2E472C-15FF-4308-94DB-AEED62061892}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="110" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="107" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1273,7 +2158,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9291205" cy="6070023"/>
+    <xdr:ext cx="9311355" cy="6079977"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="圖表 1">
@@ -1741,7 +2626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B6044AD-04BC-44F4-AE81-AE2B6D02B692}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -1811,10 +2696,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48212607-C983-4A68-AFC1-9EB2A772EC95}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1824,7 +2709,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -1838,100 +2723,732 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B2" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C2" s="3">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D2" s="3">
-        <v>3</v>
+        <f>C2 + 2</f>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2</v>
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>34</v>
       </c>
       <c r="D3" s="3">
-        <v>3</v>
+        <f t="shared" ref="D3:D16" si="0">C3 + 2</f>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3">
-        <v>2</v>
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <v>45</v>
+      </c>
+      <c r="C4">
+        <v>45</v>
       </c>
       <c r="D4" s="3">
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
-        <v>2</v>
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>55</v>
+      </c>
+      <c r="C5">
+        <v>55</v>
       </c>
       <c r="D5" s="3">
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3">
-        <v>2</v>
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>61</v>
+      </c>
+      <c r="C6">
+        <v>61</v>
       </c>
       <c r="D6" s="3">
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3">
-        <v>2</v>
+        <v>27</v>
+      </c>
+      <c r="B7">
+        <v>64</v>
+      </c>
+      <c r="C7">
+        <v>64</v>
       </c>
       <c r="D7" s="3">
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8">
+        <v>68</v>
+      </c>
+      <c r="C8">
+        <v>68</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9">
+        <v>71</v>
+      </c>
+      <c r="C9">
+        <v>71</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10">
+        <v>75</v>
+      </c>
+      <c r="C10">
+        <v>75</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>78</v>
+      </c>
+      <c r="C11">
+        <v>78</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12">
+        <v>81</v>
+      </c>
+      <c r="C12">
+        <v>81</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13">
+        <v>85</v>
+      </c>
+      <c r="C13">
+        <v>85</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14">
+        <v>88</v>
+      </c>
+      <c r="C14">
+        <v>88</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15">
+        <v>92</v>
+      </c>
+      <c r="C15">
+        <v>92</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16">
+        <v>95</v>
+      </c>
+      <c r="C16">
+        <v>95</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17">
         <v>20</v>
       </c>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3">
-        <v>3</v>
+      <c r="C17">
+        <v>20</v>
+      </c>
+      <c r="D17" s="3">
+        <f>C17 + 2</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18">
+        <v>34</v>
+      </c>
+      <c r="C18">
+        <v>34</v>
+      </c>
+      <c r="D18" s="3">
+        <f>C18 + 2</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19">
+        <v>45</v>
+      </c>
+      <c r="C19">
+        <v>45</v>
+      </c>
+      <c r="D19" s="3">
+        <f>C19 + 2</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20">
+        <v>55</v>
+      </c>
+      <c r="C20">
+        <v>55</v>
+      </c>
+      <c r="D20" s="3">
+        <f>C20 + 2</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21">
+        <v>63</v>
+      </c>
+      <c r="C21">
+        <v>63</v>
+      </c>
+      <c r="D21" s="3">
+        <f>C21 + 2</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22">
+        <v>74</v>
+      </c>
+      <c r="C22">
+        <v>74</v>
+      </c>
+      <c r="D22" s="3">
+        <f>C22 + 2</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23">
+        <v>82</v>
+      </c>
+      <c r="C23">
+        <v>82</v>
+      </c>
+      <c r="D23" s="3">
+        <f>C23 + 2</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24">
+        <v>88</v>
+      </c>
+      <c r="C24">
+        <v>88</v>
+      </c>
+      <c r="D24" s="3">
+        <f>C24 + 2</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25">
+        <v>94</v>
+      </c>
+      <c r="C25">
+        <v>94</v>
+      </c>
+      <c r="D25" s="3">
+        <f>C25 + 2</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26">
+        <v>100</v>
+      </c>
+      <c r="C26">
+        <v>100</v>
+      </c>
+      <c r="D26" s="3">
+        <f>C26 + 2</f>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27">
+        <v>105</v>
+      </c>
+      <c r="C27">
+        <v>105</v>
+      </c>
+      <c r="D27" s="3">
+        <f>C27 + 2</f>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28">
+        <v>111</v>
+      </c>
+      <c r="C28">
+        <v>111</v>
+      </c>
+      <c r="D28" s="3">
+        <f>C28 + 2</f>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29">
+        <v>117</v>
+      </c>
+      <c r="C29">
+        <v>117</v>
+      </c>
+      <c r="D29" s="3">
+        <f>C29 + 2</f>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30">
+        <v>122</v>
+      </c>
+      <c r="C30">
+        <v>122</v>
+      </c>
+      <c r="D30" s="3">
+        <f>C30 + 2</f>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31">
+        <v>128</v>
+      </c>
+      <c r="C31">
+        <v>128</v>
+      </c>
+      <c r="D31" s="3">
+        <f>C31 + 2</f>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="3">
+        <v>20</v>
+      </c>
+      <c r="C32" s="3">
+        <v>20</v>
+      </c>
+      <c r="D32" s="3">
+        <f t="shared" ref="D32:D45" si="1">C32 + 2</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33">
+        <v>40</v>
+      </c>
+      <c r="C33">
+        <v>40</v>
+      </c>
+      <c r="D33" s="3">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34">
+        <v>50</v>
+      </c>
+      <c r="C34">
+        <v>50</v>
+      </c>
+      <c r="D34" s="3">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35">
+        <v>59</v>
+      </c>
+      <c r="C35">
+        <v>59</v>
+      </c>
+      <c r="D35" s="3">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36">
+        <v>68</v>
+      </c>
+      <c r="C36">
+        <v>68</v>
+      </c>
+      <c r="D36" s="3">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37">
+        <v>77</v>
+      </c>
+      <c r="C37">
+        <v>77</v>
+      </c>
+      <c r="D37" s="3">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38">
+        <v>85</v>
+      </c>
+      <c r="C38">
+        <v>85</v>
+      </c>
+      <c r="D38" s="3">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39">
+        <v>92</v>
+      </c>
+      <c r="C39">
+        <v>92</v>
+      </c>
+      <c r="D39" s="3">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40">
+        <v>98</v>
+      </c>
+      <c r="C40">
+        <v>98</v>
+      </c>
+      <c r="D40" s="3">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41">
+        <v>105</v>
+      </c>
+      <c r="C41">
+        <v>105</v>
+      </c>
+      <c r="D41" s="3">
+        <f t="shared" si="1"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42">
+        <v>112</v>
+      </c>
+      <c r="C42">
+        <v>112</v>
+      </c>
+      <c r="D42" s="3">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43">
+        <v>118</v>
+      </c>
+      <c r="C43">
+        <v>118</v>
+      </c>
+      <c r="D43" s="3">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44">
+        <v>123</v>
+      </c>
+      <c r="C44">
+        <v>123</v>
+      </c>
+      <c r="D44" s="3">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45">
+        <v>128</v>
+      </c>
+      <c r="C45">
+        <v>128</v>
+      </c>
+      <c r="D45" s="3">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="3">
+        <v>10</v>
+      </c>
+      <c r="C46" s="3">
+        <v>20</v>
+      </c>
+      <c r="D46" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" s="3">
+        <v>10</v>
+      </c>
+      <c r="C47" s="3">
+        <v>20</v>
+      </c>
+      <c r="D47" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48" s="3">
+        <v>10</v>
+      </c>
+      <c r="C48" s="3">
+        <v>20</v>
+      </c>
+      <c r="D48" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="3">
+        <v>10</v>
+      </c>
+      <c r="C49" s="3">
+        <v>20</v>
+      </c>
+      <c r="D49" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="3">
+        <v>10</v>
+      </c>
+      <c r="C50" s="3">
+        <v>20</v>
+      </c>
+      <c r="D50" s="3">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
